--- a/ejemplo.xlsx
+++ b/ejemplo.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>ds</t>
   </si>
@@ -38,6 +39,15 @@
   </si>
   <si>
     <t>sdsa</t>
+  </si>
+  <si>
+    <t>cxcxzczxc</t>
+  </si>
+  <si>
+    <t>cxz</t>
+  </si>
+  <si>
+    <t>cz</t>
   </si>
 </sst>
 </file>
@@ -381,7 +391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -436,4 +446,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>